--- a/data/pca/factorExposure/factorExposure_2017-02-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01197300559826457</v>
+        <v>0.01183942868057934</v>
       </c>
       <c r="C2">
-        <v>0.02049735058257008</v>
+        <v>-0.04121924271296293</v>
       </c>
       <c r="D2">
-        <v>-0.02223905659092464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03032510023143095</v>
+      </c>
+      <c r="E2">
+        <v>0.04234867453691039</v>
+      </c>
+      <c r="F2">
+        <v>-0.00738921710090162</v>
+      </c>
+      <c r="G2">
+        <v>0.1106406361115957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02444238540868544</v>
+        <v>0.03836571667459215</v>
       </c>
       <c r="C3">
-        <v>-0.0006071903203286155</v>
+        <v>-0.1015422249710617</v>
       </c>
       <c r="D3">
-        <v>-0.09067433838292815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01806029466632552</v>
+      </c>
+      <c r="E3">
+        <v>0.1027489192659362</v>
+      </c>
+      <c r="F3">
+        <v>-0.02179662847701581</v>
+      </c>
+      <c r="G3">
+        <v>0.1419704482380141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02934766311999467</v>
+        <v>0.05545650454126595</v>
       </c>
       <c r="C4">
-        <v>0.01098342993338307</v>
+        <v>-0.06725055472525263</v>
       </c>
       <c r="D4">
-        <v>-0.08004779131953657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0250786195068623</v>
+      </c>
+      <c r="E4">
+        <v>0.04000118457350577</v>
+      </c>
+      <c r="F4">
+        <v>-0.0005207764909496608</v>
+      </c>
+      <c r="G4">
+        <v>0.1036454597138404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.006280628938155734</v>
+        <v>0.03457952631849521</v>
       </c>
       <c r="C6">
-        <v>0.01317241927249636</v>
+        <v>-0.05139813827070462</v>
       </c>
       <c r="D6">
-        <v>-0.06250816440957131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01762669857855885</v>
+      </c>
+      <c r="E6">
+        <v>0.04338453235260444</v>
+      </c>
+      <c r="F6">
+        <v>-0.001037647298217173</v>
+      </c>
+      <c r="G6">
+        <v>0.08654965363457892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.005816399430090343</v>
+        <v>0.02039053826691415</v>
       </c>
       <c r="C7">
-        <v>0.01507196685061769</v>
+        <v>-0.03930071142302106</v>
       </c>
       <c r="D7">
-        <v>-0.03555831571038626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0141744729488098</v>
+      </c>
+      <c r="E7">
+        <v>0.006859954337430981</v>
+      </c>
+      <c r="F7">
+        <v>-0.004878160872479422</v>
+      </c>
+      <c r="G7">
+        <v>0.1250044136467641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.006135915179016834</v>
+        <v>0.003046898583358907</v>
       </c>
       <c r="C8">
-        <v>0.003481865317670608</v>
+        <v>-0.02386161856228838</v>
       </c>
       <c r="D8">
-        <v>0.01149362714863874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004145636215491217</v>
+      </c>
+      <c r="E8">
+        <v>0.03322075220737695</v>
+      </c>
+      <c r="F8">
+        <v>-0.001904471453106363</v>
+      </c>
+      <c r="G8">
+        <v>0.07293847639346641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.007980636793410071</v>
+        <v>0.03282242582179574</v>
       </c>
       <c r="C9">
-        <v>0.01141766108348305</v>
+        <v>-0.04869205374095131</v>
       </c>
       <c r="D9">
-        <v>-0.04937560402332543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0165789841956163</v>
+      </c>
+      <c r="E9">
+        <v>0.02607404325297634</v>
+      </c>
+      <c r="F9">
+        <v>-0.0001191828262675054</v>
+      </c>
+      <c r="G9">
+        <v>0.1056337052692938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1453507411017126</v>
+        <v>0.09890350318637257</v>
       </c>
       <c r="C10">
-        <v>-0.06980104522556155</v>
+        <v>0.1820487007009192</v>
       </c>
       <c r="D10">
-        <v>0.1349692077860079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01562215281090335</v>
+      </c>
+      <c r="E10">
+        <v>0.01874306254668006</v>
+      </c>
+      <c r="F10">
+        <v>-0.02437519660222473</v>
+      </c>
+      <c r="G10">
+        <v>0.05291135838926693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.003635900996484699</v>
+        <v>0.03478333099969284</v>
       </c>
       <c r="C11">
-        <v>-0.0008410622629383423</v>
+        <v>-0.05206187060642192</v>
       </c>
       <c r="D11">
-        <v>-0.04676090459450876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002696910378174994</v>
+      </c>
+      <c r="E11">
+        <v>0.02206047514448461</v>
+      </c>
+      <c r="F11">
+        <v>0.01452514024812887</v>
+      </c>
+      <c r="G11">
+        <v>0.09052815736369867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00749105033006633</v>
+        <v>0.0371024037614293</v>
       </c>
       <c r="C12">
-        <v>0.002836392311735219</v>
+        <v>-0.04702657609535021</v>
       </c>
       <c r="D12">
-        <v>-0.04204747264243797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006695970967272626</v>
+      </c>
+      <c r="E12">
+        <v>0.01005991333391209</v>
+      </c>
+      <c r="F12">
+        <v>-0.000524420680145459</v>
+      </c>
+      <c r="G12">
+        <v>0.08280065592712763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.009969284398740072</v>
+        <v>0.01372262309644273</v>
       </c>
       <c r="C13">
-        <v>0.01898076509863915</v>
+        <v>-0.04158499747943467</v>
       </c>
       <c r="D13">
-        <v>-0.02867507499387605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02716903934215837</v>
+      </c>
+      <c r="E13">
+        <v>0.04168167702036008</v>
+      </c>
+      <c r="F13">
+        <v>-0.008411379487203295</v>
+      </c>
+      <c r="G13">
+        <v>0.1421229140219619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.002557691361461717</v>
+        <v>0.01012857080272988</v>
       </c>
       <c r="C14">
-        <v>0.008833700939844639</v>
+        <v>-0.02754463566108691</v>
       </c>
       <c r="D14">
-        <v>-0.01606866933690669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01035145079974905</v>
+      </c>
+      <c r="E14">
+        <v>0.008683275407807035</v>
+      </c>
+      <c r="F14">
+        <v>-0.01039185512547876</v>
+      </c>
+      <c r="G14">
+        <v>0.1122467552919865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005340870347218868</v>
+        <v>0.03358112550934364</v>
       </c>
       <c r="C16">
-        <v>-0.001611865508135797</v>
+        <v>-0.04543094128416727</v>
       </c>
       <c r="D16">
-        <v>-0.0352528627970764</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002277991393828149</v>
+      </c>
+      <c r="E16">
+        <v>0.01820818952295626</v>
+      </c>
+      <c r="F16">
+        <v>-0.003883753912572865</v>
+      </c>
+      <c r="G16">
+        <v>0.09304671210126593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.009140454148081472</v>
+        <v>0.02139244291876695</v>
       </c>
       <c r="C19">
-        <v>0.0100716433119698</v>
+        <v>-0.05127745719013822</v>
       </c>
       <c r="D19">
-        <v>-0.0419571109785627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02014862613941844</v>
+      </c>
+      <c r="E19">
+        <v>0.08830095310639519</v>
+      </c>
+      <c r="F19">
+        <v>-0.003166875000977122</v>
+      </c>
+      <c r="G19">
+        <v>0.1438412587363513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0002116331326760222</v>
+        <v>0.015897476749662</v>
       </c>
       <c r="C20">
-        <v>0.01145849119031932</v>
+        <v>-0.0409796170499557</v>
       </c>
       <c r="D20">
-        <v>-0.02952383753596152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01464821049178223</v>
+      </c>
+      <c r="E20">
+        <v>0.03894282365651997</v>
+      </c>
+      <c r="F20">
+        <v>-0.0220349015831612</v>
+      </c>
+      <c r="G20">
+        <v>0.1156274483761024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.003224899049876857</v>
+        <v>0.01045598994211659</v>
       </c>
       <c r="C21">
-        <v>0.01556512700695093</v>
+        <v>-0.0382011297288933</v>
       </c>
       <c r="D21">
-        <v>-0.00504949113481273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01970497715492171</v>
+      </c>
+      <c r="E21">
+        <v>0.04936201194004794</v>
+      </c>
+      <c r="F21">
+        <v>-0.01321215845145962</v>
+      </c>
+      <c r="G21">
+        <v>0.1428258634416346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001013145095863013</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006535472047223223</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002087788293195574</v>
+      </c>
+      <c r="E22">
+        <v>0.01636232782461391</v>
+      </c>
+      <c r="F22">
+        <v>0.007730904869666819</v>
+      </c>
+      <c r="G22">
+        <v>0.002707371401796743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001017678519928721</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006537583542227016</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002084955339028376</v>
+      </c>
+      <c r="E23">
+        <v>0.01633654674627545</v>
+      </c>
+      <c r="F23">
+        <v>0.007719016610367023</v>
+      </c>
+      <c r="G23">
+        <v>0.002605185773854306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.001146454190730441</v>
+        <v>0.02867141330353101</v>
       </c>
       <c r="C24">
-        <v>0.006196222346332595</v>
+        <v>-0.04875267576737097</v>
       </c>
       <c r="D24">
-        <v>-0.03835473522778487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007430591116902741</v>
+      </c>
+      <c r="E24">
+        <v>0.01668299692964567</v>
+      </c>
+      <c r="F24">
+        <v>0.005886889888749596</v>
+      </c>
+      <c r="G24">
+        <v>0.09291951462217767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01340378379783002</v>
+        <v>0.04206804183011256</v>
       </c>
       <c r="C25">
-        <v>0.005612433039609683</v>
+        <v>-0.05658018338285015</v>
       </c>
       <c r="D25">
-        <v>-0.05531675340342981</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01142592471677066</v>
+      </c>
+      <c r="E25">
+        <v>0.006047512272021275</v>
+      </c>
+      <c r="F25">
+        <v>0.003091351066640012</v>
+      </c>
+      <c r="G25">
+        <v>0.09794212561892944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.003980191381642757</v>
+        <v>0.01440962753942421</v>
       </c>
       <c r="C26">
-        <v>0.02237339774593511</v>
+        <v>-0.01142118667115722</v>
       </c>
       <c r="D26">
-        <v>0.002259552709920523</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02421112731174264</v>
+      </c>
+      <c r="E26">
+        <v>0.00785547139751802</v>
+      </c>
+      <c r="F26">
+        <v>-0.008638364850554138</v>
+      </c>
+      <c r="G26">
+        <v>0.0858131815588359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1955230832580713</v>
+        <v>0.1286742455866216</v>
       </c>
       <c r="C28">
-        <v>-0.07773572592075313</v>
+        <v>0.2411863067138846</v>
       </c>
       <c r="D28">
-        <v>0.1613446527562857</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006952858843864819</v>
+      </c>
+      <c r="E28">
+        <v>0.005514788460436595</v>
+      </c>
+      <c r="F28">
+        <v>-0.02126561717379031</v>
+      </c>
+      <c r="G28">
+        <v>0.04729490550452278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00454040669229459</v>
+        <v>0.009658524526593406</v>
       </c>
       <c r="C29">
-        <v>0.005282997116578294</v>
+        <v>-0.02323009963623006</v>
       </c>
       <c r="D29">
-        <v>-0.01633450045664691</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009479470236511436</v>
+      </c>
+      <c r="E29">
+        <v>0.003385506207322568</v>
+      </c>
+      <c r="F29">
+        <v>-0.01472638162580508</v>
+      </c>
+      <c r="G29">
+        <v>0.1022130884066943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01172060293745734</v>
+        <v>0.03898702100399788</v>
       </c>
       <c r="C30">
-        <v>0.02038272299467518</v>
+        <v>-0.06788784481304949</v>
       </c>
       <c r="D30">
-        <v>-0.09072774142362489</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02976325846678726</v>
+      </c>
+      <c r="E30">
+        <v>0.07101608238880025</v>
+      </c>
+      <c r="F30">
+        <v>0.02817193080051287</v>
+      </c>
+      <c r="G30">
+        <v>0.1353468688014355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02081810639322141</v>
+        <v>0.05356602779952148</v>
       </c>
       <c r="C31">
-        <v>-0.004141466523451149</v>
+        <v>-0.03968312002142466</v>
       </c>
       <c r="D31">
-        <v>-0.02203870595138063</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003928682513718989</v>
+      </c>
+      <c r="E31">
+        <v>-0.003402268549681018</v>
+      </c>
+      <c r="F31">
+        <v>-0.03770697196802476</v>
+      </c>
+      <c r="G31">
+        <v>0.09698322213381397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005933021816357323</v>
+        <v>0.001975838985500938</v>
       </c>
       <c r="C32">
-        <v>-0.0113676996122388</v>
+        <v>-0.02246715922054464</v>
       </c>
       <c r="D32">
-        <v>-0.01976334190510096</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002212594030948717</v>
+      </c>
+      <c r="E32">
+        <v>0.044558135504343</v>
+      </c>
+      <c r="F32">
+        <v>0.03183287366141679</v>
+      </c>
+      <c r="G32">
+        <v>0.08531043040858294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.001878738219840947</v>
+        <v>0.02754241075723287</v>
       </c>
       <c r="C33">
-        <v>0.01142466215958258</v>
+        <v>-0.0507200239545177</v>
       </c>
       <c r="D33">
-        <v>-0.03583406691417339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01663005323262942</v>
+      </c>
+      <c r="E33">
+        <v>0.05045284885019376</v>
+      </c>
+      <c r="F33">
+        <v>0.006056858943974596</v>
+      </c>
+      <c r="G33">
+        <v>0.1634102639835427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01657045513395606</v>
+        <v>0.0404657830797409</v>
       </c>
       <c r="C34">
-        <v>-0.01349022671630594</v>
+        <v>-0.05852507380685771</v>
       </c>
       <c r="D34">
-        <v>-0.05436219627250356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004168215509401245</v>
+      </c>
+      <c r="E34">
+        <v>0.01335414728824572</v>
+      </c>
+      <c r="F34">
+        <v>0.01807653782442712</v>
+      </c>
+      <c r="G34">
+        <v>0.09376594413605079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.006639148597699206</v>
+        <v>0.01617363541224649</v>
       </c>
       <c r="C36">
-        <v>0.008773478920645882</v>
+        <v>-0.01009040943614103</v>
       </c>
       <c r="D36">
-        <v>0.00167027966407045</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01290159517610922</v>
+      </c>
+      <c r="E36">
+        <v>0.009991121697487731</v>
+      </c>
+      <c r="F36">
+        <v>-0.009831681925653984</v>
+      </c>
+      <c r="G36">
+        <v>0.09442779293591866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01847427092584595</v>
+        <v>0.03221648920699938</v>
       </c>
       <c r="C38">
-        <v>-0.01657788842515302</v>
+        <v>-0.02921244132243656</v>
       </c>
       <c r="D38">
-        <v>-0.03028529655792798</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007618239012144818</v>
+      </c>
+      <c r="E38">
+        <v>0.004857653910154327</v>
+      </c>
+      <c r="F38">
+        <v>-0.01960944852218678</v>
+      </c>
+      <c r="G38">
+        <v>0.08552760511789752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0128214517512259</v>
+        <v>0.03658862018065048</v>
       </c>
       <c r="C39">
-        <v>0.01458540077363916</v>
+        <v>-0.07899033841277678</v>
       </c>
       <c r="D39">
-        <v>-0.09153262624034397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01208012335519688</v>
+      </c>
+      <c r="E39">
+        <v>0.03328342102635862</v>
+      </c>
+      <c r="F39">
+        <v>0.01647474862952321</v>
+      </c>
+      <c r="G39">
+        <v>0.09506530192756654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01236869031329873</v>
+        <v>0.01405287103170681</v>
       </c>
       <c r="C40">
-        <v>0.005736996291258185</v>
+        <v>-0.03833189856763003</v>
       </c>
       <c r="D40">
-        <v>-0.0204686786657896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01507472887390139</v>
+      </c>
+      <c r="E40">
+        <v>0.03424788047588764</v>
+      </c>
+      <c r="F40">
+        <v>-0.01400669943240877</v>
+      </c>
+      <c r="G40">
+        <v>0.125102220295505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01167783293860392</v>
+        <v>0.02074351109208171</v>
       </c>
       <c r="C41">
-        <v>-0.001391253709451637</v>
+        <v>-0.003049031497135188</v>
       </c>
       <c r="D41">
-        <v>0.01057016108369635</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.00483278371624953</v>
+      </c>
+      <c r="E41">
+        <v>0.008403874249641509</v>
+      </c>
+      <c r="F41">
+        <v>-0.01668808038665863</v>
+      </c>
+      <c r="G41">
+        <v>0.08952834831279045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.02407231254261371</v>
+        <v>0.006367499015068697</v>
       </c>
       <c r="C42">
-        <v>0.08835431259458393</v>
+        <v>-0.02425264224679172</v>
       </c>
       <c r="D42">
-        <v>-0.07637332012836347</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08664414703521506</v>
+      </c>
+      <c r="E42">
+        <v>-0.002485330534144536</v>
+      </c>
+      <c r="F42">
+        <v>-0.03562122874697898</v>
+      </c>
+      <c r="G42">
+        <v>-0.02465964298665407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01292349076919959</v>
+        <v>0.03586151185176028</v>
       </c>
       <c r="C43">
-        <v>-0.001075120467964372</v>
+        <v>-0.01894670690837378</v>
       </c>
       <c r="D43">
-        <v>0.006832157450612509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.00619725830388392</v>
+      </c>
+      <c r="E43">
+        <v>0.02185998887607822</v>
+      </c>
+      <c r="F43">
+        <v>-0.01286941391251259</v>
+      </c>
+      <c r="G43">
+        <v>0.1211875656929801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003829754306819482</v>
+        <v>0.01368948782495229</v>
       </c>
       <c r="C44">
-        <v>0.004666201328310203</v>
+        <v>-0.05870958140160035</v>
       </c>
       <c r="D44">
-        <v>-0.04552577873916153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007204256600567939</v>
+      </c>
+      <c r="E44">
+        <v>0.02828738397824601</v>
+      </c>
+      <c r="F44">
+        <v>-0.0162642410465151</v>
+      </c>
+      <c r="G44">
+        <v>0.1128047098835388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0007513339806077878</v>
+        <v>0.009267342281597979</v>
       </c>
       <c r="C46">
-        <v>0.01035370136822891</v>
+        <v>-0.01506690266419614</v>
       </c>
       <c r="D46">
-        <v>0.007191494847498546</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01253163488356607</v>
+      </c>
+      <c r="E46">
+        <v>-0.003294710788902822</v>
+      </c>
+      <c r="F46">
+        <v>-0.01900214488257115</v>
+      </c>
+      <c r="G46">
+        <v>0.1077824315530253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0283478555768083</v>
+        <v>0.07962719355450813</v>
       </c>
       <c r="C47">
-        <v>-0.01495248037565527</v>
+        <v>-0.0699592674678447</v>
       </c>
       <c r="D47">
-        <v>-0.06799369747529257</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005169764797478069</v>
+      </c>
+      <c r="E47">
+        <v>-0.0143636121184759</v>
+      </c>
+      <c r="F47">
+        <v>-0.05315552753852892</v>
+      </c>
+      <c r="G47">
+        <v>0.08524872041074551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.003689572783970205</v>
+        <v>0.01929065709962851</v>
       </c>
       <c r="C48">
-        <v>-0.0001989673122460924</v>
+        <v>-0.01288538160431532</v>
       </c>
       <c r="D48">
-        <v>-0.009109640825861735</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.00246856193708095</v>
+      </c>
+      <c r="E48">
+        <v>0.00405746445736422</v>
+      </c>
+      <c r="F48">
+        <v>-0.02158527346718245</v>
+      </c>
+      <c r="G48">
+        <v>0.1031697912273121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.04030984653200417</v>
+        <v>0.07484235019992741</v>
       </c>
       <c r="C50">
-        <v>-0.01876152438262068</v>
+        <v>-0.07309839817153477</v>
       </c>
       <c r="D50">
-        <v>-0.05679114448819812</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002038686522172325</v>
+      </c>
+      <c r="E50">
+        <v>-0.01099822705051019</v>
+      </c>
+      <c r="F50">
+        <v>-0.05119191013063322</v>
+      </c>
+      <c r="G50">
+        <v>0.09432396984729008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.001104886495227302</v>
+        <v>0.01288258202087803</v>
       </c>
       <c r="C51">
-        <v>0.006022418521015017</v>
+        <v>-0.03790384363026606</v>
       </c>
       <c r="D51">
-        <v>-0.01998871837512502</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01105308236021498</v>
+      </c>
+      <c r="E51">
+        <v>0.03001004115762381</v>
+      </c>
+      <c r="F51">
+        <v>0.01260710717024398</v>
+      </c>
+      <c r="G51">
+        <v>0.1236699383756946</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.04379383683224545</v>
+        <v>0.08149538645104835</v>
       </c>
       <c r="C53">
-        <v>-0.01980023520266523</v>
+        <v>-0.08394935984936742</v>
       </c>
       <c r="D53">
-        <v>-0.1033206937383708</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003499993961427447</v>
+      </c>
+      <c r="E53">
+        <v>-0.03268875473035805</v>
+      </c>
+      <c r="F53">
+        <v>-0.05735659929990296</v>
+      </c>
+      <c r="G53">
+        <v>0.08696668516124895</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0143889464166485</v>
+        <v>0.03277941754846505</v>
       </c>
       <c r="C54">
-        <v>-0.009460940185276424</v>
+        <v>-0.0187363867298453</v>
       </c>
       <c r="D54">
-        <v>0.00514771992736053</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.000972296533506783</v>
+      </c>
+      <c r="E54">
+        <v>0.01835110620192328</v>
+      </c>
+      <c r="F54">
+        <v>-0.009862600926572427</v>
+      </c>
+      <c r="G54">
+        <v>0.1119381871959594</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.029459821649974</v>
+        <v>0.07392079145751126</v>
       </c>
       <c r="C55">
-        <v>-0.0148746950319743</v>
+        <v>-0.06697262856576187</v>
       </c>
       <c r="D55">
-        <v>-0.08586161692443213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005208636602705648</v>
+      </c>
+      <c r="E55">
+        <v>-0.03177609291790379</v>
+      </c>
+      <c r="F55">
+        <v>-0.05513044721615162</v>
+      </c>
+      <c r="G55">
+        <v>0.06518160598350629</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0718531475559681</v>
+        <v>0.1372042208752049</v>
       </c>
       <c r="C56">
-        <v>-0.03778142104694549</v>
+        <v>-0.1061096468144947</v>
       </c>
       <c r="D56">
-        <v>-0.1503120871586347</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01330085351496276</v>
+      </c>
+      <c r="E56">
+        <v>-0.04228258578208636</v>
+      </c>
+      <c r="F56">
+        <v>-0.07139081565494523</v>
+      </c>
+      <c r="G56">
+        <v>0.03718283271436449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01405331350683134</v>
+        <v>0.0044620424781706</v>
       </c>
       <c r="C57">
-        <v>0.01791737761244806</v>
+        <v>-0.005870761983670225</v>
       </c>
       <c r="D57">
-        <v>-0.02283023620231087</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02272215871898928</v>
+      </c>
+      <c r="E57">
+        <v>0.02448605941040614</v>
+      </c>
+      <c r="F57">
+        <v>0.001806644172398358</v>
+      </c>
+      <c r="G57">
+        <v>0.02001729652612543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01241688110851047</v>
+        <v>0.04642488802627161</v>
       </c>
       <c r="C58">
-        <v>-0.004519005108302485</v>
+        <v>-0.04396651861134762</v>
       </c>
       <c r="D58">
-        <v>-0.1556518865759993</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02379574047786908</v>
+      </c>
+      <c r="E58">
+        <v>0.8394460476917983</v>
+      </c>
+      <c r="F58">
+        <v>-0.4375244880790337</v>
+      </c>
+      <c r="G58">
+        <v>-0.2447624704240252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2233474348602452</v>
+        <v>0.1587665776099863</v>
       </c>
       <c r="C59">
-        <v>-0.0953108963070339</v>
+        <v>0.2065323294212213</v>
       </c>
       <c r="D59">
-        <v>0.1412058958297843</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01125024015601426</v>
+      </c>
+      <c r="E59">
+        <v>0.02543772387930117</v>
+      </c>
+      <c r="F59">
+        <v>-0.004602893812735007</v>
+      </c>
+      <c r="G59">
+        <v>0.03459995871061045</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2354380408042182</v>
+        <v>0.2875551759391281</v>
       </c>
       <c r="C60">
-        <v>-0.08356957627625841</v>
+        <v>-0.115867756876925</v>
       </c>
       <c r="D60">
-        <v>-0.1926441461802911</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01378957725256296</v>
+      </c>
+      <c r="E60">
+        <v>0.07495704152357013</v>
+      </c>
+      <c r="F60">
+        <v>0.3388763443814417</v>
+      </c>
+      <c r="G60">
+        <v>-0.158953186389988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.00163426629527848</v>
+        <v>0.03883419217700749</v>
       </c>
       <c r="C61">
-        <v>0.003872609286610005</v>
+        <v>-0.06433405094064382</v>
       </c>
       <c r="D61">
-        <v>-0.06855868031016536</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006090923691114699</v>
+      </c>
+      <c r="E61">
+        <v>0.02915119176143971</v>
+      </c>
+      <c r="F61">
+        <v>0.009029902749805639</v>
+      </c>
+      <c r="G61">
+        <v>0.1028581506774412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.002263192277533273</v>
+        <v>0.01454406418350884</v>
       </c>
       <c r="C63">
-        <v>0.006988600296777172</v>
+        <v>-0.03027320057669266</v>
       </c>
       <c r="D63">
-        <v>-0.02034470281302642</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008855124835205039</v>
+      </c>
+      <c r="E63">
+        <v>0.004999468928252212</v>
+      </c>
+      <c r="F63">
+        <v>-0.01515954970239244</v>
+      </c>
+      <c r="G63">
+        <v>0.09445485337815074</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02730748325843311</v>
+        <v>0.04893895585216725</v>
       </c>
       <c r="C64">
-        <v>-0.006392789297121574</v>
+        <v>-0.04556461478991356</v>
       </c>
       <c r="D64">
-        <v>-0.04914845043655086</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006483824342426672</v>
+      </c>
+      <c r="E64">
+        <v>0.005806471945095574</v>
+      </c>
+      <c r="F64">
+        <v>0.00469912582796644</v>
+      </c>
+      <c r="G64">
+        <v>0.1031301178222942</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03959579020695139</v>
+        <v>0.07375239443647728</v>
       </c>
       <c r="C65">
-        <v>0.0004074581013068611</v>
+        <v>-0.06002581947479883</v>
       </c>
       <c r="D65">
-        <v>-0.1100729315504561</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01730221691140281</v>
+      </c>
+      <c r="E65">
+        <v>0.04905902365272771</v>
+      </c>
+      <c r="F65">
+        <v>0.01723535631224097</v>
+      </c>
+      <c r="G65">
+        <v>0.04424910617792904</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.01119553357532103</v>
+        <v>0.04824231939953265</v>
       </c>
       <c r="C66">
-        <v>0.01333629530690445</v>
+        <v>-0.1060218378544182</v>
       </c>
       <c r="D66">
-        <v>-0.1321856879086682</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01246797891203836</v>
+      </c>
+      <c r="E66">
+        <v>0.05013935897038432</v>
+      </c>
+      <c r="F66">
+        <v>0.02446813535566134</v>
+      </c>
+      <c r="G66">
+        <v>0.1053373448923777</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04187364198556121</v>
+        <v>0.05570947672435952</v>
       </c>
       <c r="C67">
-        <v>-0.02305825117698347</v>
+        <v>-0.03421498318565881</v>
       </c>
       <c r="D67">
-        <v>-0.0514734146813812</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006166567405219463</v>
+      </c>
+      <c r="E67">
+        <v>-0.0057941633871862</v>
+      </c>
+      <c r="F67">
+        <v>-0.01593485336896271</v>
+      </c>
+      <c r="G67">
+        <v>0.07238055216703235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2260687656236149</v>
+        <v>0.1584597119086425</v>
       </c>
       <c r="C68">
-        <v>-0.07535618082890817</v>
+        <v>0.271531972089565</v>
       </c>
       <c r="D68">
-        <v>0.200469404477873</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004869884901852266</v>
+      </c>
+      <c r="E68">
+        <v>0.002610017464076542</v>
+      </c>
+      <c r="F68">
+        <v>-0.04666747498251093</v>
+      </c>
+      <c r="G68">
+        <v>0.0225414248412794</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03512279131069695</v>
+        <v>0.08213573784095046</v>
       </c>
       <c r="C69">
-        <v>-0.02203611998219039</v>
+        <v>-0.0740397315107623</v>
       </c>
       <c r="D69">
-        <v>-0.07014283903996411</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008965287703561711</v>
+      </c>
+      <c r="E69">
+        <v>-0.02712736797392779</v>
+      </c>
+      <c r="F69">
+        <v>-0.03309585479071725</v>
+      </c>
+      <c r="G69">
+        <v>0.09792984301385393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1937098387902729</v>
+        <v>0.1437119443883679</v>
       </c>
       <c r="C71">
-        <v>-0.07245497732749633</v>
+        <v>0.2293378997143629</v>
       </c>
       <c r="D71">
-        <v>0.1355149569986197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002879533541805966</v>
+      </c>
+      <c r="E71">
+        <v>0.03118799888455896</v>
+      </c>
+      <c r="F71">
+        <v>-0.0311469536872925</v>
+      </c>
+      <c r="G71">
+        <v>0.06831224906154852</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.02934790848469508</v>
+        <v>0.08719275377787378</v>
       </c>
       <c r="C72">
-        <v>-0.02073889999985187</v>
+        <v>-0.06923289859790056</v>
       </c>
       <c r="D72">
-        <v>-0.08875978070291481</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008444777622411265</v>
+      </c>
+      <c r="E72">
+        <v>-0.007647091134303894</v>
+      </c>
+      <c r="F72">
+        <v>0.03405366607098637</v>
+      </c>
+      <c r="G72">
+        <v>0.09413282897671364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3129175185635396</v>
+        <v>0.3721755286531926</v>
       </c>
       <c r="C73">
-        <v>-0.1088452834727958</v>
+        <v>-0.1206792653243959</v>
       </c>
       <c r="D73">
-        <v>-0.2839211249642695</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02400183888974452</v>
+      </c>
+      <c r="E73">
+        <v>0.1883721345866033</v>
+      </c>
+      <c r="F73">
+        <v>0.561436685362968</v>
+      </c>
+      <c r="G73">
+        <v>-0.292468118362705</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.05831561997432784</v>
+        <v>0.1045478512652592</v>
       </c>
       <c r="C74">
-        <v>-0.03233800591199845</v>
+        <v>-0.1092772066433314</v>
       </c>
       <c r="D74">
-        <v>-0.1559801612566319</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009546509775236862</v>
+      </c>
+      <c r="E74">
+        <v>-0.01718871779596915</v>
+      </c>
+      <c r="F74">
+        <v>-0.0637782545414918</v>
+      </c>
+      <c r="G74">
+        <v>0.07004149087756603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1542078243297142</v>
+        <v>0.2484359889541901</v>
       </c>
       <c r="C75">
-        <v>-0.07961047125331135</v>
+        <v>-0.1516797861750643</v>
       </c>
       <c r="D75">
-        <v>-0.2738585685025075</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03157693264916587</v>
+      </c>
+      <c r="E75">
+        <v>-0.09298099297892735</v>
+      </c>
+      <c r="F75">
+        <v>-0.1536614617087789</v>
+      </c>
+      <c r="G75">
+        <v>-0.02700192051182759</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.06414853106285136</v>
+        <v>0.1168890880404055</v>
       </c>
       <c r="C76">
-        <v>-0.04041408747407522</v>
+        <v>-0.1107225167247846</v>
       </c>
       <c r="D76">
-        <v>-0.1760705779678349</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01766517274180214</v>
+      </c>
+      <c r="E76">
+        <v>-0.04052460524942177</v>
+      </c>
+      <c r="F76">
+        <v>-0.08985181455054107</v>
+      </c>
+      <c r="G76">
+        <v>0.05131513348095731</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.02293163728719673</v>
+        <v>0.0712464027486274</v>
       </c>
       <c r="C77">
-        <v>-0.0008214123422948823</v>
+        <v>-0.05720127790906977</v>
       </c>
       <c r="D77">
-        <v>-0.0764296718609173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.009872298711270223</v>
+      </c>
+      <c r="E77">
+        <v>0.04991805880200263</v>
+      </c>
+      <c r="F77">
+        <v>-0.005101151197913043</v>
+      </c>
+      <c r="G77">
+        <v>0.07280327814645061</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0167383978927499</v>
+        <v>0.04164363350894203</v>
       </c>
       <c r="C78">
-        <v>-0.003565193968965652</v>
+        <v>-0.05197713648102441</v>
       </c>
       <c r="D78">
-        <v>-0.06422359760279726</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006611492969777118</v>
+      </c>
+      <c r="E78">
+        <v>0.03717443923351411</v>
+      </c>
+      <c r="F78">
+        <v>0.03011484650695579</v>
+      </c>
+      <c r="G78">
+        <v>0.1032282276701129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0009900984179822452</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-5.908560036366167e-05</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0003421463213672353</v>
+      </c>
+      <c r="E79">
+        <v>0.003859539102630748</v>
+      </c>
+      <c r="F79">
+        <v>0.0006427737405039461</v>
+      </c>
+      <c r="G79">
+        <v>0.002604337567464968</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03751074543418502</v>
+        <v>0.04291042901817181</v>
       </c>
       <c r="C80">
-        <v>-0.004078070479704679</v>
+        <v>-0.04970283334028459</v>
       </c>
       <c r="D80">
-        <v>-0.07869297100337523</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01343211250088018</v>
+      </c>
+      <c r="E80">
+        <v>0.02833169749401586</v>
+      </c>
+      <c r="F80">
+        <v>0.003285160518931493</v>
+      </c>
+      <c r="G80">
+        <v>0.05129742761533904</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.07548979462357092</v>
+        <v>0.1384423644556652</v>
       </c>
       <c r="C81">
-        <v>-0.0390565398372998</v>
+        <v>-0.09707208607251459</v>
       </c>
       <c r="D81">
-        <v>-0.1513986391737081</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01541716979990679</v>
+      </c>
+      <c r="E81">
+        <v>-0.05716094932327215</v>
+      </c>
+      <c r="F81">
+        <v>-0.1198706761880531</v>
+      </c>
+      <c r="G81">
+        <v>0.01988583397045515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.005716848929384464</v>
+        <v>0.1466505383489229</v>
       </c>
       <c r="C82">
-        <v>-0.002417544687960189</v>
+        <v>-0.08372750709197688</v>
       </c>
       <c r="D82">
-        <v>-0.007643829289574595</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01188661345276489</v>
+      </c>
+      <c r="E82">
+        <v>-0.1266507727989232</v>
+      </c>
+      <c r="F82">
+        <v>-0.04660098411606483</v>
+      </c>
+      <c r="G82">
+        <v>0.06672806945881302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01514245434832102</v>
+        <v>0.03367074315848975</v>
       </c>
       <c r="C83">
-        <v>-0.002189556538730212</v>
+        <v>-0.03149743995930742</v>
       </c>
       <c r="D83">
-        <v>-0.01898747400898389</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006619034446426394</v>
+      </c>
+      <c r="E83">
+        <v>0.03404499255101549</v>
+      </c>
+      <c r="F83">
+        <v>0.0266975491914738</v>
+      </c>
+      <c r="G83">
+        <v>0.06198205810205672</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1453023121091189</v>
+        <v>0.2083604104874725</v>
       </c>
       <c r="C85">
-        <v>-0.06365045145571918</v>
+        <v>-0.1473143216008408</v>
       </c>
       <c r="D85">
-        <v>-0.2560416482907842</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01725782775744166</v>
+      </c>
+      <c r="E85">
+        <v>-0.1157407235102389</v>
+      </c>
+      <c r="F85">
+        <v>-0.08994821974316167</v>
+      </c>
+      <c r="G85">
+        <v>-0.06700593479255455</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007613867696341323</v>
+        <v>0.01278248579702116</v>
       </c>
       <c r="C86">
-        <v>0.002444592781292703</v>
+        <v>-0.02725395770412591</v>
       </c>
       <c r="D86">
-        <v>-0.03258678586065713</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01162668188050095</v>
+      </c>
+      <c r="E86">
+        <v>0.05296399785958234</v>
+      </c>
+      <c r="F86">
+        <v>0.006149703927355376</v>
+      </c>
+      <c r="G86">
+        <v>0.1819870935250082</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.009651047812122244</v>
+        <v>0.02161105600661509</v>
       </c>
       <c r="C87">
-        <v>0.01288677741838798</v>
+        <v>-0.01780346883887387</v>
       </c>
       <c r="D87">
-        <v>-0.02819881297959819</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01247666345376949</v>
+      </c>
+      <c r="E87">
+        <v>0.09895179503945029</v>
+      </c>
+      <c r="F87">
+        <v>-0.01552463616353028</v>
+      </c>
+      <c r="G87">
+        <v>0.1251038710533864</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04255879106434376</v>
+        <v>0.09201773424123512</v>
       </c>
       <c r="C88">
-        <v>0.006718387976131255</v>
+        <v>-0.07103935737515192</v>
       </c>
       <c r="D88">
-        <v>-0.03846868779413319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02220298465573401</v>
+      </c>
+      <c r="E88">
+        <v>-0.006349788957988164</v>
+      </c>
+      <c r="F88">
+        <v>-0.02013288752954945</v>
+      </c>
+      <c r="G88">
+        <v>0.100250005268728</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3363899805465174</v>
+        <v>0.233317063506907</v>
       </c>
       <c r="C89">
-        <v>-0.1217426730706753</v>
+        <v>0.3646732934998336</v>
       </c>
       <c r="D89">
-        <v>0.2563866361242585</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0001117362343026328</v>
+      </c>
+      <c r="E89">
+        <v>-0.02367765387421802</v>
+      </c>
+      <c r="F89">
+        <v>-0.01885424273095091</v>
+      </c>
+      <c r="G89">
+        <v>0.07701078680244232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2841937160034033</v>
+        <v>0.2115881764973901</v>
       </c>
       <c r="C90">
-        <v>-0.1060423750707137</v>
+        <v>0.3157740502993894</v>
       </c>
       <c r="D90">
-        <v>0.2202892646593103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004768952252146441</v>
+      </c>
+      <c r="E90">
+        <v>-0.003508040533836619</v>
+      </c>
+      <c r="F90">
+        <v>-0.04894030036764329</v>
+      </c>
+      <c r="G90">
+        <v>0.048137299366165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1156941951077071</v>
+        <v>0.1850563598547869</v>
       </c>
       <c r="C91">
-        <v>-0.06272986373022303</v>
+        <v>-0.1387219367815115</v>
       </c>
       <c r="D91">
-        <v>-0.191693260916845</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02266770833107539</v>
+      </c>
+      <c r="E91">
+        <v>-0.08738590370659995</v>
+      </c>
+      <c r="F91">
+        <v>-0.1228075144170863</v>
+      </c>
+      <c r="G91">
+        <v>0.02333914945466404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2550336510919016</v>
+        <v>0.1978105635843475</v>
       </c>
       <c r="C92">
-        <v>-0.1306778052243715</v>
+        <v>0.2579975299637849</v>
       </c>
       <c r="D92">
-        <v>0.1378239378504215</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03858549768203624</v>
+      </c>
+      <c r="E92">
+        <v>0.02323631065112279</v>
+      </c>
+      <c r="F92">
+        <v>-0.05998850378967824</v>
+      </c>
+      <c r="G92">
+        <v>0.09536993542985747</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.3113341691252334</v>
+        <v>0.2353269490429335</v>
       </c>
       <c r="C93">
-        <v>-0.1241447993723789</v>
+        <v>0.31297289517301</v>
       </c>
       <c r="D93">
-        <v>0.1822504703739758</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01148117401949198</v>
+      </c>
+      <c r="E93">
+        <v>0.003479848828286916</v>
+      </c>
+      <c r="F93">
+        <v>-0.03985835672459542</v>
+      </c>
+      <c r="G93">
+        <v>0.05874854142364678</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1630453721118724</v>
+        <v>0.3191173350366047</v>
       </c>
       <c r="C94">
-        <v>-0.06140955370611325</v>
+        <v>-0.1879169252631115</v>
       </c>
       <c r="D94">
-        <v>-0.2776649099081112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02101379088879797</v>
+      </c>
+      <c r="E94">
+        <v>-0.3038418536037836</v>
+      </c>
+      <c r="F94">
+        <v>-0.4268239493408981</v>
+      </c>
+      <c r="G94">
+        <v>-0.3998267085668824</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.02457804244481266</v>
+        <v>0.09399214213444924</v>
       </c>
       <c r="C95">
-        <v>-0.01935298349253917</v>
+        <v>-0.08356111801155965</v>
       </c>
       <c r="D95">
-        <v>-0.1287170336363178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009245878310403039</v>
+      </c>
+      <c r="E95">
+        <v>0.103169079174249</v>
+      </c>
+      <c r="F95">
+        <v>0.1562900368689281</v>
+      </c>
+      <c r="G95">
+        <v>0.03259365656634757</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1540214219138967</v>
+        <v>0.1910300040849903</v>
       </c>
       <c r="C98">
-        <v>-0.07842616750464061</v>
+        <v>-0.04808103096038636</v>
       </c>
       <c r="D98">
-        <v>-0.1127546084901577</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0113571210266834</v>
+      </c>
+      <c r="E98">
+        <v>0.1184771406945655</v>
+      </c>
+      <c r="F98">
+        <v>0.222581027820364</v>
+      </c>
+      <c r="G98">
+        <v>-0.02121658996542495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.004177815114262044</v>
+        <v>0.009500241570915703</v>
       </c>
       <c r="C101">
-        <v>0.005274780042389273</v>
+        <v>-0.0231067994780421</v>
       </c>
       <c r="D101">
-        <v>-0.01661071042898254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009305295135602654</v>
+      </c>
+      <c r="E101">
+        <v>0.003017137369548576</v>
+      </c>
+      <c r="F101">
+        <v>-0.01562513189896576</v>
+      </c>
+      <c r="G101">
+        <v>0.1017734280176871</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.08111718258636424</v>
+        <v>0.1174070900967128</v>
       </c>
       <c r="C102">
-        <v>-0.02774254180854387</v>
+        <v>-0.08215861680416812</v>
       </c>
       <c r="D102">
-        <v>-0.1294114302732269</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.000571949429835333</v>
+      </c>
+      <c r="E102">
+        <v>-0.04120919050481871</v>
+      </c>
+      <c r="F102">
+        <v>-0.0331841388847742</v>
+      </c>
+      <c r="G102">
+        <v>0.01682611214713827</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.3707089237776294</v>
+        <v>0.02127208650453449</v>
       </c>
       <c r="C104">
-        <v>0.9192250861664861</v>
+        <v>0.02993667039471629</v>
       </c>
       <c r="D104">
-        <v>0.009750545805450808</v>
+        <v>-0.9876027051933511</v>
+      </c>
+      <c r="E104">
+        <v>-0.06057670133927902</v>
+      </c>
+      <c r="F104">
+        <v>-0.02769297099783192</v>
+      </c>
+      <c r="G104">
+        <v>-0.04160318250580397</v>
       </c>
     </row>
   </sheetData>
